--- a/docs/overview.xlsx
+++ b/docs/overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\reinhardt\firma\Hasenzagl\Magenta\working\ort-dsl-documentation\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B679847-BAFF-4C73-8482-07F8A6B3D56C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412BBDE5-58DB-4D08-B5E2-1198B8A4E52B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{74579933-400F-4051-B20C-7F9D550BA588}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>may contain an optional file: ".ort.yml"</t>
   </si>
@@ -96,6 +96,9 @@
   <si>
     <t>Overview: ORT - OSCakeReporter</t>
   </si>
+  <si>
+    <t>OSCake.log</t>
+  </si>
 </sst>
 </file>
 
@@ -149,12 +152,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1042,14 +1045,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>241300</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>184149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1065,8 +1068,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6343650" y="3867149"/>
-          <a:ext cx="514350" cy="463551"/>
+          <a:off x="2273300" y="4038599"/>
+          <a:ext cx="12700" cy="1200151"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1328,6 +1331,59 @@
         <a:xfrm flipH="1">
           <a:off x="13182600" y="4876800"/>
           <a:ext cx="762000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:tailEnd type="arrow" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Gerade Verbindung mit Pfeil 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B15D4DB1-5088-42C2-B351-CDDFFB57D455}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2266950" y="4502150"/>
+          <a:ext cx="247650" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1653,10 +1709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F61C43A-84C4-408D-9614-9F76D5833E59}">
-  <dimension ref="B1:U30"/>
+  <dimension ref="B1:U31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="AD19" sqref="AD19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="V28" sqref="V28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1665,7 +1721,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:21" ht="26" x14ac:dyDescent="0.6">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1685,14 +1741,14 @@
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
@@ -1708,19 +1764,19 @@
       <c r="I15" t="s">
         <v>12</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2" t="s">
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
@@ -1752,6 +1808,7 @@
         <v>4</v>
       </c>
     </row>
+    <row r="25" spans="2:12" ht="5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="2:12" x14ac:dyDescent="0.35">
       <c r="L26" t="s">
         <v>3</v>
@@ -1762,11 +1819,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B30" s="1" t="s">
+    <row r="28" spans="2:12" ht="5.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="K29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>0</v>
       </c>
     </row>
